--- a/modelamiento/model_evaluations.xlsx
+++ b/modelamiento/model_evaluations.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2410905160257688</v>
+        <v>0.2075320834150913</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1508158451471305</v>
+        <v>0.4351211774593918</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
